--- a/dataset/excel data/405-173.xlsx
+++ b/dataset/excel data/405-173.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397DE5AB-B22F-4C71-8A4E-29B187F8D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15C5BC0-F021-4E7D-93B5-509B5ED0FD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="405-173" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="97">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,7 +262,7 @@
     <t>DIN</t>
   </si>
   <si>
-    <t>0.8621</t>
+    <t>0.8889</t>
   </si>
   <si>
     <t/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.0481</t>
+    <t>0.0433</t>
   </si>
   <si>
     <t>2000</t>
@@ -280,115 +280,115 @@
     <t>HAL</t>
   </si>
   <si>
+    <t>DRE</t>
+  </si>
+  <si>
+    <t>0.7018</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
     <t>BED</t>
   </si>
   <si>
-    <t>0.7548</t>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0127</t>
   </si>
   <si>
     <t>CLO</t>
   </si>
   <si>
+    <t>0.6111</t>
+  </si>
+  <si>
+    <t>0.1191</t>
+  </si>
+  <si>
+    <t>LIV</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>UTI</t>
+  </si>
+  <si>
+    <t>0.0449</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.0093</t>
+  </si>
+  <si>
+    <t>0.6541</t>
+  </si>
+  <si>
+    <t>0.3195</t>
+  </si>
+  <si>
     <t>KIT</t>
   </si>
   <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.0545</t>
-  </si>
-  <si>
-    <t>LIV</t>
-  </si>
-  <si>
-    <t>0.6593</t>
-  </si>
-  <si>
-    <t>0.1275</t>
-  </si>
-  <si>
-    <t>UTI</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.0501</t>
-  </si>
-  <si>
-    <t>DRE</t>
-  </si>
-  <si>
-    <t>0.7568</t>
+    <t>0.6291</t>
   </si>
   <si>
     <t>0.044</t>
   </si>
   <si>
-    <t>0.6567</t>
-  </si>
-  <si>
-    <t>0.0078</t>
+    <t>0.0671</t>
+  </si>
+  <si>
+    <t>0.8235</t>
+  </si>
+  <si>
+    <t>0.0183</t>
+  </si>
+  <si>
+    <t>GAR</t>
+  </si>
+  <si>
+    <t>0.1131</t>
+  </si>
+  <si>
+    <t>0.7122</t>
+  </si>
+  <si>
+    <t>0.0422</t>
   </si>
   <si>
     <t>0.0149</t>
   </si>
   <si>
-    <t>0.6651</t>
-  </si>
-  <si>
-    <t>0.3354</t>
-  </si>
-  <si>
-    <t>0.913</t>
-  </si>
-  <si>
-    <t>0.0205</t>
-  </si>
-  <si>
-    <t>0.3293</t>
-  </si>
-  <si>
-    <t>0.0059</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>0.4433</t>
-  </si>
-  <si>
-    <t>0.0111</t>
-  </si>
-  <si>
-    <t>GAR</t>
-  </si>
-  <si>
-    <t>0.1331</t>
-  </si>
-  <si>
-    <t>0.0762</t>
-  </si>
-  <si>
-    <t>0.8824</t>
-  </si>
-  <si>
-    <t>0.0027</t>
-  </si>
-  <si>
-    <t>0.0173</t>
-  </si>
-  <si>
-    <t>0.0156</t>
-  </si>
-  <si>
-    <t>0.0019</t>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>0.3582</t>
+  </si>
+  <si>
+    <t>0.0049</t>
+  </si>
+  <si>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>0.7826</t>
+  </si>
+  <si>
+    <t>0.0457</t>
+  </si>
+  <si>
+    <t>0.002</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,13 +547,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -568,13 +568,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -583,37 +583,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -943,30 +946,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -995,14 +998,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1073,10 +1076,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1255,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.2462</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>0.1953</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1341,16 +1344,16 @@
         <v>60</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.26319999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>0.18279999999999999</v>
+        <v>6.8599999999999994E-2</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1368,7 +1371,7 @@
         <v>56</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>58</v>
@@ -1389,25 +1392,25 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="1">
         <v>2</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>11</v>
-      </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="1">
         <v>1</v>
@@ -1430,25 +1433,25 @@
         <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.26319999999999999</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>0.18279999999999999</v>
+        <v>0.1424</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0.60240000000000005</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>55</v>
@@ -1460,7 +1463,7 @@
         <v>56</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>58</v>
@@ -1472,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1481,22 +1484,22 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AB7" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC7" s="1">
         <v>1</v>
@@ -1522,25 +1525,25 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.2767</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="I8" s="1">
-        <v>0.19689999999999999</v>
+        <v>0.1424</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0.60240000000000005</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>55</v>
@@ -1552,7 +1555,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>58</v>
@@ -1561,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1585,22 +1588,22 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1623,16 +1626,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
@@ -1644,7 +1647,7 @@
         <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>58</v>
@@ -1677,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB9" s="1">
         <v>1</v>
@@ -1715,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>55</v>
@@ -1736,7 +1739,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>58</v>
@@ -1769,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AB10" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AC10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
         <v>1</v>
@@ -1807,16 +1810,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>55</v>
@@ -1828,7 +1831,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>58</v>
@@ -1861,22 +1864,22 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AB11" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1899,16 +1902,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>55</v>
@@ -1920,7 +1923,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>58</v>
@@ -1953,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AB12" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
@@ -1991,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>55</v>
@@ -2012,7 +2015,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>58</v>
@@ -2045,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AB13" s="1">
         <v>1</v>
@@ -2083,16 +2086,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>55</v>
@@ -2104,7 +2107,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2137,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB14" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AC14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="1">
         <v>1</v>
@@ -2175,16 +2178,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
@@ -2196,7 +2199,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>58</v>
@@ -2229,22 +2232,22 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -2267,16 +2270,16 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
@@ -2288,7 +2291,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>58</v>
@@ -2321,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
@@ -2359,16 +2362,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>55</v>
@@ -2380,7 +2383,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>58</v>
@@ -2413,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AB17" s="1">
         <v>4</v>
       </c>
       <c r="AC17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1">
         <v>1</v>
@@ -2451,16 +2454,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -2472,7 +2475,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>58</v>
@@ -2505,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AB18" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="1">
         <v>1</v>
@@ -2520,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
@@ -2543,16 +2546,16 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0.45839999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -2564,7 +2567,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>58</v>
@@ -2597,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB19" s="1">
         <v>2</v>
@@ -2626,25 +2629,25 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.22919999999999999</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>0.21879999999999999</v>
+        <v>0.26419999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.96430000000000005</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
@@ -2656,7 +2659,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>58</v>
@@ -2668,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -2683,19 +2686,19 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB20" s="1">
         <v>2</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>5</v>
-      </c>
       <c r="AC20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="1">
         <v>1</v>
@@ -2718,25 +2721,25 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>0.22919999999999999</v>
+        <v>0.2165</v>
       </c>
       <c r="I21" s="1">
-        <v>0.21879999999999999</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.96430000000000005</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2784,11 +2787,11 @@
         <v>60</v>
       </c>
       <c r="AB21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="1">
         <v>2</v>
       </c>
-      <c r="AC21" s="1">
-        <v>3</v>
-      </c>
       <c r="AD21" s="1">
         <v>1</v>
       </c>
@@ -2796,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
@@ -2810,25 +2813,25 @@
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>0.25130000000000002</v>
+        <v>0.2165</v>
       </c>
       <c r="I22" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>55</v>
@@ -2840,7 +2843,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2852,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2873,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AB22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="1">
         <v>1</v>
@@ -2888,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
@@ -2902,19 +2905,19 @@
         <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.25130000000000002</v>
+        <v>0.1431</v>
       </c>
       <c r="I23" s="1">
-        <v>0.17499999999999999</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2944,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -2959,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AB23" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC23" s="1">
         <v>1</v>
@@ -2994,19 +2997,19 @@
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.1138</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>6.88E-2</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -3033,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -3051,28 +3054,28 @@
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB24" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
@@ -3086,25 +3089,25 @@
         <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.1138</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>0.13120000000000001</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.79759999999999998</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3116,7 +3119,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>58</v>
@@ -3125,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -3143,28 +3146,28 @@
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AB25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
@@ -3178,7 +3181,7 @@
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -3187,16 +3190,16 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>0.4531</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
@@ -3208,7 +3211,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>58</v>
@@ -3238,13 +3241,13 @@
         <v>1</v>
       </c>
       <c r="Y26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB26" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC26" s="1">
         <v>1</v>
@@ -3270,7 +3273,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -3279,16 +3282,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>0.4531</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
@@ -3300,7 +3303,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>58</v>
@@ -3330,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="Y27" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>59</v>
@@ -3362,7 +3365,7 @@
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -3371,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="I28" s="1">
-        <v>0.4531</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>55</v>
@@ -3392,7 +3395,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>58</v>
@@ -3422,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="Y28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>59</v>
@@ -3454,19 +3457,19 @@
         <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.27010000000000001</v>
       </c>
       <c r="I29" s="1">
-        <v>0.4531</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -3511,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AB29" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC29" s="1">
         <v>1</v>
@@ -3546,25 +3549,25 @@
         <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0.15620000000000001</v>
+        <v>0.25219999999999998</v>
       </c>
       <c r="I30" s="1">
-        <v>0.13120000000000001</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>55</v>
@@ -3576,7 +3579,7 @@
         <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>58</v>
@@ -3603,19 +3606,19 @@
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AB30" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD30" s="1">
         <v>1</v>
@@ -3624,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="AF30" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.3">
@@ -3638,25 +3641,25 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0.13919999999999999</v>
+        <v>0.25219999999999998</v>
       </c>
       <c r="I31" s="1">
-        <v>4.2200000000000001E-2</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>55</v>
@@ -3668,7 +3671,7 @@
         <v>56</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>58</v>
@@ -3677,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="1">
         <v>0</v>
@@ -3689,22 +3692,22 @@
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC31" s="1">
         <v>1</v>
@@ -3730,25 +3733,25 @@
         <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>0.16470000000000001</v>
+        <v>0.15210000000000001</v>
       </c>
       <c r="I32" s="1">
-        <v>6.7199999999999996E-2</v>
+        <v>0.1201</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
@@ -3760,7 +3763,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>58</v>
@@ -3793,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AB32" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC32" s="1">
         <v>1</v>
@@ -3822,7 +3825,7 @@
         <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1">
         <v>19</v>
@@ -3831,16 +3834,16 @@
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>0.37859999999999999</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="I33" s="1">
-        <v>0.35160000000000002</v>
+        <v>0.3362</v>
       </c>
       <c r="J33" s="1">
-        <v>0.99109999999999998</v>
+        <v>0.95920000000000005</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>55</v>
@@ -3852,7 +3855,7 @@
         <v>56</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>58</v>
@@ -3885,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AB33" s="1">
         <v>6</v>
@@ -3914,25 +3917,25 @@
         <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>0.28010000000000002</v>
+        <v>0.2487</v>
       </c>
       <c r="I34" s="1">
-        <v>0.27189999999999998</v>
+        <v>0.16980000000000001</v>
       </c>
       <c r="J34" s="1">
-        <v>0.94830000000000003</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>55</v>
@@ -3944,7 +3947,7 @@
         <v>56</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>58</v>
@@ -3956,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34" s="1">
         <v>0</v>
@@ -3974,13 +3977,13 @@
         <v>1</v>
       </c>
       <c r="Y34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AB34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC34" s="1">
         <v>1</v>
@@ -3992,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="AF34" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
@@ -4006,25 +4009,25 @@
         <v>52</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
-        <v>0.28010000000000002</v>
+        <v>0.2487</v>
       </c>
       <c r="I35" s="1">
-        <v>0.27189999999999998</v>
+        <v>0.16980000000000001</v>
       </c>
       <c r="J35" s="1">
-        <v>0.94830000000000003</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>55</v>
@@ -4036,7 +4039,7 @@
         <v>56</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>58</v>
@@ -4048,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -4066,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>59</v>
@@ -4098,25 +4101,25 @@
         <v>52</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F36" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>5.7700000000000001E-2</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="I36" s="1">
-        <v>4.6899999999999997E-2</v>
+        <v>0.1321</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>55</v>
@@ -4128,7 +4131,7 @@
         <v>56</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>58</v>
@@ -4140,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" s="1">
         <v>0</v>
@@ -4161,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AB36" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC36" s="1">
         <v>1</v>
@@ -4190,7 +4193,7 @@
         <v>52</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F37" s="1">
         <v>6</v>
@@ -4199,16 +4202,16 @@
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>0.1205</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="I37" s="1">
-        <v>0.14380000000000001</v>
+        <v>0.1321</v>
       </c>
       <c r="J37" s="1">
-        <v>0.77170000000000005</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>55</v>
@@ -4220,7 +4223,7 @@
         <v>56</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>58</v>
@@ -4253,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB37" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AC37" s="1">
         <v>1</v>
@@ -4282,7 +4285,7 @@
         <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1">
         <v>6</v>
@@ -4291,16 +4294,16 @@
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>0.1205</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="I38" s="1">
-        <v>0.14380000000000001</v>
+        <v>0.1321</v>
       </c>
       <c r="J38" s="1">
-        <v>0.77170000000000005</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>55</v>
@@ -4312,7 +4315,7 @@
         <v>56</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>58</v>
@@ -4345,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="AB38" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AC38" s="1">
         <v>1</v>
@@ -4360,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="AF38" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.3">
@@ -4374,25 +4377,25 @@
         <v>52</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>0.1205</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="I39" s="1">
-        <v>0.14380000000000001</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="J39" s="1">
-        <v>0.77170000000000005</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
@@ -4404,7 +4407,7 @@
         <v>56</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>58</v>
@@ -4416,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" s="1">
         <v>0</v>
@@ -4437,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC39" s="1">
         <v>1</v>
@@ -4452,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="AF39" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.3">
@@ -4466,25 +4469,25 @@
         <v>52</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1">
         <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>0.1019</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="I40" s="1">
-        <v>0.15310000000000001</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="J40" s="1">
-        <v>0.61219999999999997</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>55</v>
@@ -4496,7 +4499,7 @@
         <v>56</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>58</v>
@@ -4505,34 +4508,34 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB40" s="1">
         <v>2</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0</v>
-      </c>
-      <c r="U40" s="1">
-        <v>0</v>
-      </c>
-      <c r="V40" s="1">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>11</v>
       </c>
       <c r="AC40" s="1">
         <v>3</v>
@@ -4558,25 +4561,25 @@
         <v>52</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
       </c>
       <c r="H41" s="1">
-        <v>0.1019</v>
+        <v>0.1055</v>
       </c>
       <c r="I41" s="1">
-        <v>0.15310000000000001</v>
+        <v>0.12859999999999999</v>
       </c>
       <c r="J41" s="1">
-        <v>0.61219999999999997</v>
+        <v>0.78669999999999995</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>55</v>
@@ -4588,7 +4591,7 @@
         <v>56</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>58</v>
@@ -4600,34 +4603,34 @@
         <v>1</v>
       </c>
       <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="1">
         <v>2</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>1</v>
       </c>
       <c r="AD41" s="1">
         <v>1</v>
@@ -4650,25 +4653,25 @@
         <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F42" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
       </c>
       <c r="H42" s="1">
-        <v>4.58E-2</v>
+        <v>0.24690000000000001</v>
       </c>
       <c r="I42" s="1">
-        <v>4.2200000000000001E-2</v>
+        <v>0.1852</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>55</v>
@@ -4680,7 +4683,7 @@
         <v>56</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>58</v>
@@ -4701,22 +4704,22 @@
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AB42" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AC42" s="1">
         <v>2</v>
@@ -4728,6 +4731,190 @@
         <v>1</v>
       </c>
       <c r="AF42" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.1852</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="1">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
         <v>0.25</v>
       </c>
     </row>
